--- a/A题/附件/result2.xlsx
+++ b/A题/附件/result2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2024-5-1\数学建模竞赛组委会、专家组工作\竞赛2025\A题-烟幕干扰弹投放策略\2025-8-23-3 A题(蔡志杰)\附件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\Math Modeling\2025\CUMCM2025\A题\附件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDF92F2-BB74-42CA-B380-B52D47D03171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51A3229-1B6F-4F2E-87BF-CCAFF7CC9EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11438" yWindow="0" windowWidth="11684" windowHeight="13763" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -487,17 +484,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.58203125" customWidth="1"/>
-    <col min="2" max="2" width="17.58203125" customWidth="1"/>
-    <col min="3" max="3" width="16.58203125" customWidth="1"/>
-    <col min="4" max="10" width="14.58203125" customWidth="1"/>
+    <col min="1" max="1" width="13.59765625" customWidth="1"/>
+    <col min="2" max="2" width="17.59765625" customWidth="1"/>
+    <col min="3" max="3" width="16.59765625" customWidth="1"/>
+    <col min="4" max="10" width="14.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,25 +528,106 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="B2">
+        <v>6.38</v>
+      </c>
+      <c r="C2">
+        <v>139.99</v>
+      </c>
+      <c r="D2">
+        <v>17815</v>
+      </c>
+      <c r="E2">
+        <v>1.7</v>
+      </c>
+      <c r="F2">
+        <v>1800</v>
+      </c>
+      <c r="G2">
+        <v>17906.5</v>
+      </c>
+      <c r="H2">
+        <v>11.9</v>
+      </c>
+      <c r="I2">
+        <v>1797.9</v>
+      </c>
+      <c r="J2">
+        <v>4.7699999999999996</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="B3">
+        <v>256.62</v>
+      </c>
+      <c r="C3">
+        <v>138.15</v>
+      </c>
+      <c r="D3">
+        <v>11896.7</v>
+      </c>
+      <c r="E3">
+        <v>965.7</v>
+      </c>
+      <c r="F3">
+        <v>1400</v>
+      </c>
+      <c r="G3">
+        <v>11680.2</v>
+      </c>
+      <c r="H3">
+        <v>56</v>
+      </c>
+      <c r="I3">
+        <v>1175.5</v>
+      </c>
+      <c r="J3">
+        <v>5.0199999999999996</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="B4">
+        <v>110.9</v>
+      </c>
+      <c r="C4">
+        <v>138.22999999999999</v>
+      </c>
+      <c r="D4">
+        <v>5132.3</v>
+      </c>
+      <c r="E4">
+        <v>-727.7</v>
+      </c>
+      <c r="F4">
+        <v>700</v>
+      </c>
+      <c r="G4">
+        <v>4809</v>
+      </c>
+      <c r="H4">
+        <v>119.1</v>
+      </c>
+      <c r="I4">
+        <v>489.3</v>
+      </c>
+      <c r="J4">
+        <v>5.5548999999999999</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>10</v>
